--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1130127.132457683</v>
+        <v>1110615.873724999</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2626870.006455272</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10606130.46744307</v>
+        <v>11446803.26399407</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>214.543954164424</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>84.4526210585752</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>121.43127627971</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>8.892594560364216</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>186.8151741495564</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>4.440065804380628</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.60408762095423</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.4006936231293</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806814</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>26.78026256753507</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>80.71606764504763</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>84.51224796875172</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>118.5508175628491</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.8684410387791</v>
+        <v>1.487334137518444</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,16 +2295,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.732847630763</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292724</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>13.42874471570786</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>106.957866234416</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>150.2062474346973</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>76.93628836873204</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3681,7 +3681,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>106.5867442799587</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>188.9566382418277</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,7 +3915,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>31.83188548727853</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>57.65044720079512</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>134.2162827771179</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>197.4995743803894</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.944160717209</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>1177.981643776797</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1177.981643776797</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>792.1933911785532</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>381.2074863889456</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2480.438026205673</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2480.438026205673</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240411</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261307</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>576.0542102320662</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340174</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="C5" t="n">
-        <v>799.1015098861748</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D5" t="n">
-        <v>799.1015098861748</v>
+        <v>1520.080031287787</v>
       </c>
       <c r="E5" t="n">
-        <v>799.1015098861748</v>
+        <v>1134.291778689543</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>723.305873899935</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>2247.308246834949</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4643,46 +4643,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>529.7758821321494</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359519</v>
+        <v>379.6592427198136</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>231.7461491374205</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>84.85620163951015</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951015</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951015</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951015</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E8" t="n">
-        <v>807.3934508328825</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F8" t="n">
-        <v>396.407546043275</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4898,10 +4898,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>249.9299350185088</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.9937520906019</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.9937520906019</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.9937520906019</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.9937520906019</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.9937520906019</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.9937520906019</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>80.9937520906019</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>570.4247794971948</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>470.7225141620389</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>249.9299350185088</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1586.925993846824</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2120.457898518748</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577531</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5111,10 +5111,10 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468572</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5126,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5232,19 +5232,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104704</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5263,40 +5263,40 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5466,22 +5466,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.343466104704</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>877.1197344942216</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5503,64 +5503,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,22 +5624,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>855.6340846510827</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5706,19 +5706,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>1956.343466104704</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W19" t="n">
-        <v>1751.093193329805</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X19" t="n">
-        <v>1523.103642431788</v>
+        <v>1258.075128624852</v>
       </c>
       <c r="Y19" t="n">
-        <v>1302.311063288258</v>
+        <v>1037.282549481322</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5849,16 +5849,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1288.206478295169</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1288.206478295169</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>1288.206478295169</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>1288.206478295169</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="23">
@@ -5977,43 +5977,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>932.5990189467752</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1797.11783460013</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2330.649739272054</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,16 +6086,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>713.5009252592428</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>544.5647423313359</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>544.5647423313359</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>544.5647423313359</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>909.27315417834</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413794</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X25" t="n">
-        <v>391.8664332433621</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998319</v>
+        <v>895.1493900894825</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001598</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H26" t="n">
-        <v>137.557933208927</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972666</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2317.998088216515</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807097</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,22 +6335,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
         <v>1646.12566951853</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.657581931531</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1764.657581931531</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1764.657581931531</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1751.093193329805</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.103642431788</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6469,46 +6469,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1956.343466104704</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1751.093193329805</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.103642431788</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6785,7 +6785,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,16 +6797,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3942.370854773035</v>
+        <v>817.4551465905729</v>
       </c>
       <c r="C34" t="n">
-        <v>3773.434671845128</v>
+        <v>648.518963662666</v>
       </c>
       <c r="D34" t="n">
-        <v>3623.318032432792</v>
+        <v>498.4023242503303</v>
       </c>
       <c r="E34" t="n">
-        <v>3475.404938850399</v>
+        <v>350.4892306679371</v>
       </c>
       <c r="F34" t="n">
-        <v>3328.514991352489</v>
+        <v>203.5992831700268</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004074</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>4496.535381004074</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>4496.535381004074</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>4496.535381004074</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>4496.535381004074</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X34" t="n">
-        <v>4344.811898746804</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="Y34" t="n">
-        <v>4124.019319603274</v>
+        <v>999.1036114208126</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1198.376021052697</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1198.376021052697</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>1198.376021052697</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1120.662598458018</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7162,49 +7162,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972665</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807097</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750057</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
         <v>1715.000032008795</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3623.318032432792</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="C40" t="n">
-        <v>3623.318032432792</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D40" t="n">
-        <v>3623.318032432792</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E40" t="n">
-        <v>3475.404938850399</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F40" t="n">
-        <v>3328.514991352489</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>3160.812154727208</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004074</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.7687655736</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>3985.665898699243</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.981410493357</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W40" t="n">
-        <v>3623.318032432792</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X40" t="n">
-        <v>3623.318032432792</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y40" t="n">
-        <v>3623.318032432792</v>
+        <v>704.2840989361212</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7396,13 +7396,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,28 +7411,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1364.144379432264</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>1897.676284104189</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807097</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750057</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>909.2731541783413</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C43" t="n">
-        <v>740.3369712504344</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D43" t="n">
-        <v>590.2203318380987</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E43" t="n">
-        <v>442.3072382557056</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F43" t="n">
-        <v>295.4172907577952</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>127.7144541325141</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839441</v>
@@ -7575,13 +7575,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689059</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258585</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783413</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W43" t="n">
-        <v>909.2731541783413</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X43" t="n">
-        <v>909.2731541783413</v>
+        <v>873.220281864028</v>
       </c>
       <c r="Y43" t="n">
-        <v>909.2731541783413</v>
+        <v>873.220281864028</v>
       </c>
     </row>
     <row r="44">
@@ -7627,25 +7627,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
@@ -7666,13 +7666,13 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
         <v>794.2006632320242</v>
@@ -7745,16 +7745,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.3166934139181</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3805104860112</v>
+        <v>674.3568109459524</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>524.2401715336166</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>524.2401715336166</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>377.3502240357062</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7839,19 +7839,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1756.848946528553</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V46" t="n">
-        <v>1502.164458322666</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W46" t="n">
-        <v>1212.747288285705</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X46" t="n">
-        <v>984.7577373876879</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y46" t="n">
-        <v>763.9651582441578</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>29.61882225792135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>29.61882225792135</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>344.7025836476837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>29.61882225792135</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>317.5146261106152</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>103.7862464855133</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9889,16 +9889,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400244</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10588,22 +10588,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>201.9664098701116</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400226</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>315.167921710932</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11065,19 +11065,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>297.8289162490797</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400226</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,22 +22594,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22719,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>82.85718120047571</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22728,7 +22728,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>356.3802972106433</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22950,22 +22950,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>141.9938968421885</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>86.5307534535802</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>134.0724053833431</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>107.1588378261881</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.96353914315821</v>
+        <v>178.3446460444189</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>11.6882003921682</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>273.0942536208831</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>59.06794202461218</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>75.50340795433985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>141.6483649833627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>179.9362540566323</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>29.62801511026709</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>112.9231294270423</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>168.059208188242</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>31.80952548191036</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26079,7 +26079,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>88.71226382522352</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>747113.721249629</v>
+        <v>1038397.581048951</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>747113.721249629</v>
+        <v>1038397.581048951</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>747113.721249629</v>
+        <v>1038397.581048951</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756817</v>
       </c>
       <c r="F2" t="n">
         <v>436789.9655756816</v>
@@ -26331,7 +26331,7 @@
         <v>436789.9655756815</v>
       </c>
       <c r="H2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="I2" t="n">
         <v>436789.9655756815</v>
@@ -26349,13 +26349,13 @@
         <v>436789.9655756816</v>
       </c>
       <c r="N2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="O2" t="n">
         <v>436789.9655756815</v>
       </c>
       <c r="P2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756816</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925934</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53660.56571087037</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>53660.56571087037</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>53660.56571087037</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
         <v>21619.60799709187</v>
@@ -26435,16 +26435,16 @@
         <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="K4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="K4" t="n">
-        <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
@@ -26453,13 +26453,13 @@
         <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26484,34 +26484,34 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408419.6519714908</v>
+        <v>-413460.5802450277</v>
       </c>
       <c r="C6" t="n">
-        <v>181548.2272430535</v>
+        <v>176507.2989695167</v>
       </c>
       <c r="D6" t="n">
-        <v>181548.2272430536</v>
+        <v>176507.2989695167</v>
       </c>
       <c r="E6" t="n">
-        <v>-408590.5746685307</v>
+        <v>-409262.5295707884</v>
       </c>
       <c r="F6" t="n">
-        <v>318786.839324876</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="G6" t="n">
-        <v>318786.8393248759</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="H6" t="n">
-        <v>318786.839324876</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="I6" t="n">
-        <v>318786.8393248762</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="J6" t="n">
-        <v>142363.6201322826</v>
+        <v>141691.6652300251</v>
       </c>
       <c r="K6" t="n">
-        <v>318786.8393248761</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="L6" t="n">
-        <v>318786.8393248761</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="M6" t="n">
-        <v>189144.5244859314</v>
+        <v>188472.5695836733</v>
       </c>
       <c r="N6" t="n">
-        <v>318786.8393248759</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="O6" t="n">
-        <v>318786.839324876</v>
+        <v>318114.884422618</v>
       </c>
       <c r="P6" t="n">
-        <v>318786.8393248761</v>
+        <v>318114.8844226181</v>
       </c>
     </row>
   </sheetData>
@@ -26761,7 +26761,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26773,10 +26773,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.904366193233841</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>90.71426267030888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>226.9689958712386</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>14.59587156758277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.47535211858212</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.41969662100193</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>485.2089366502535</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>581.9206576708328</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>897.0044190605952</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>581.9206576708328</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>654.7059126660156</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427827</v>
+        <v>559.3763608778455</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37308,22 +37308,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>740.8875257003384</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282419</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>713.9299079303039</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427827</v>
+        <v>753.4190306414118</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282419</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1110615.873724999</v>
+        <v>1126150.974465597</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>2626870.006455273</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11446803.26399407</v>
+        <v>10606130.46744307</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>214.543954164424</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>23.96298557855408</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>121.43127627971</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>186.8151741495564</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>73.83379434090313</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.60408762095423</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231293</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>241.4724001808397</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>26.78026256753507</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>78.64571997422897</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396218</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>80.71606764504763</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>135.4334972246864</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,7 +1703,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
         <v>18.81721868247745</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>75.41231307284798</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.51224796875172</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>27.87052325606707</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>118.5508175628491</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.487334137518444</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>130.7010833068298</v>
       </c>
     </row>
     <row r="23">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>133.732847630763</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>24.81323718713724</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>165.6040273698191</v>
       </c>
       <c r="U28" t="n">
-        <v>270.0697021486465</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>203.189307827775</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>134.1156516430216</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>106.957866234416</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>110.7601806687362</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>128.7073758808343</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>188.9566382418277</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>167.4600490509918</v>
       </c>
       <c r="X43" t="n">
-        <v>57.65044720079512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.2668480797624454</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>134.2162827771179</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2149.375138862102</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2480.438026205673</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2480.438026205673</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2149.375138862102</v>
+        <v>1969.341425535106</v>
       </c>
       <c r="W2" t="n">
-        <v>2149.375138862102</v>
+        <v>1969.341425535106</v>
       </c>
       <c r="X2" t="n">
-        <v>2149.375138862102</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="Y2" t="n">
-        <v>2149.375138862102</v>
+        <v>1595.875667274026</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>576.0542102320662</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>348.7460229006679</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U4" t="n">
-        <v>348.7460229006679</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>348.7460229006679</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2247.308246834949</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C5" t="n">
-        <v>1878.345729894537</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D5" t="n">
-        <v>1520.080031287787</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1134.291778689543</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>723.305873899935</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2391.363323619549</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>2391.363323619549</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834949</v>
+        <v>2391.363323619549</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834949</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834949</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198136</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>231.7461491374205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>84.85620163951015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>84.85620163951015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>84.85620163951015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>84.85620163951015</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600563</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600563</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600563</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600563</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600563</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.94416071721</v>
+        <v>1226.657559460833</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776798</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7159451700475</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718032</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>2003.396731500767</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1613.257399524955</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.9299350185088</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C10" t="n">
-        <v>80.9937520906019</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D10" t="n">
-        <v>80.9937520906019</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E10" t="n">
-        <v>80.9937520906019</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F10" t="n">
-        <v>80.9937520906019</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G10" t="n">
-        <v>80.9937520906019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>80.9937520906019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>80.9937520906019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>648.6888630203443</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>648.6888630203443</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>648.6888630203443</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>648.6888630203443</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600563</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620389</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.9299350185088</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="11">
@@ -5038,37 +5038,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3316.966490094645</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331037</v>
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089898</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>492.7083461157126</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1769646560685</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="D13" t="n">
-        <v>411.1769646560685</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5229,22 +5229,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024461</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.1389409875</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X13" t="n">
-        <v>895.1493900894825</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y13" t="n">
-        <v>674.3568109459524</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5284,16 +5284,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5357,28 +5357,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>877.1197344942216</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C16" t="n">
-        <v>708.1835515663147</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D16" t="n">
-        <v>558.0669121539789</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V16" t="n">
-        <v>1479.892362468343</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.475192431382</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="X16" t="n">
-        <v>962.4856415333647</v>
+        <v>1376.886455649646</v>
       </c>
       <c r="Y16" t="n">
-        <v>877.1197344942216</v>
+        <v>1156.093876506116</v>
       </c>
     </row>
     <row r="17">
@@ -5509,43 +5509,43 @@
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2368.748013620956</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3348.500285847603</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.6340846510827</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C19" t="n">
-        <v>686.6979017231758</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D19" t="n">
-        <v>536.5812623108401</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E19" t="n">
-        <v>388.668168728447</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
         <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>1667.240599230347</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>1377.823429193387</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X19" t="n">
-        <v>1258.075128624852</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="Y19" t="n">
-        <v>1037.282549481322</v>
+        <v>901.3723255570251</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5779,22 +5779,22 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
         <v>2760.816196754296</v>
@@ -5807,58 +5807,58 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>390.3640755286979</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C22" t="n">
-        <v>390.3640755286979</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839441</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="Y22" t="n">
-        <v>391.866433243363</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
@@ -5995,16 +5995,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107236</v>
@@ -6016,22 +6016,22 @@
         <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y23" t="n">
         <v>2760.816196754296</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>713.5009252592428</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C25" t="n">
-        <v>544.5647423313359</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D25" t="n">
-        <v>544.5647423313359</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E25" t="n">
-        <v>544.5647423313359</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839441</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1649.763248742455</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1360.660381868098</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>1360.660381868098</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.1389409875</v>
+        <v>1360.660381868098</v>
       </c>
       <c r="X25" t="n">
-        <v>895.1493900894825</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="Y25" t="n">
-        <v>895.1493900894825</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.447785386687</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>2317.998088216515</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N26" t="n">
-        <v>3297.750360443162</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.722831322499</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679677</v>
+        <v>4243.923885728434</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4702.402088237422</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,7 +6448,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
         <v>850.213983755162</v>
@@ -6460,7 +6460,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6481,13 +6481,13 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6499,16 +6499,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1180.482532736141</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>891.0653626991802</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>891.0653626991802</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6706,46 +6706,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4243.923885728433</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,16 +6797,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>817.4551465905729</v>
+        <v>528.0379765536119</v>
       </c>
       <c r="C34" t="n">
-        <v>648.518963662666</v>
+        <v>528.0379765536119</v>
       </c>
       <c r="D34" t="n">
-        <v>498.4023242503303</v>
+        <v>377.9213371412761</v>
       </c>
       <c r="E34" t="n">
-        <v>350.4892306679371</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>203.5992831700268</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,19 +6873,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
         <v>1542.890966501056</v>
@@ -6894,16 +6894,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>999.1036114208126</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X34" t="n">
-        <v>999.1036114208126</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="Y34" t="n">
-        <v>999.1036114208126</v>
+        <v>709.6864413838516</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2883.993034926781</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3763.957685256236</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7013,43 +7013,43 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>504.4465917311013</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>354.3299523187655</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>2883.993034926781</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>3763.957685256236</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7256,10 +7256,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>704.2840989361212</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C40" t="n">
-        <v>704.2840989361212</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D40" t="n">
-        <v>704.2840989361212</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E40" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.556111024461</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W40" t="n">
-        <v>1123.1389409875</v>
+        <v>1158.199027910488</v>
       </c>
       <c r="X40" t="n">
-        <v>895.1493900894825</v>
+        <v>930.2094770124706</v>
       </c>
       <c r="Y40" t="n">
-        <v>704.2840989361212</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
@@ -7417,16 +7417,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1364.144379432264</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>1897.676284104189</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N41" t="n">
-        <v>2877.428556330835</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
         <v>4470.748294107236</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>873.220281864028</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C43" t="n">
-        <v>704.2840989361212</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D43" t="n">
-        <v>704.2840989361212</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839441</v>
@@ -7599,22 +7599,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.554715057174</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V43" t="n">
-        <v>1220.870226851287</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W43" t="n">
-        <v>931.4530568143261</v>
+        <v>1119.054913597198</v>
       </c>
       <c r="X43" t="n">
-        <v>873.220281864028</v>
+        <v>891.0653626991802</v>
       </c>
       <c r="Y43" t="n">
-        <v>873.220281864028</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>674.3568109459524</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C46" t="n">
-        <v>674.3568109459524</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D46" t="n">
-        <v>524.2401715336166</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>524.2401715336166</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>377.3502240357062</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839441</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.556111024461</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>1123.1389409875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>895.1493900894825</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y46" t="n">
-        <v>674.3568109459524</v>
+        <v>709.6864413838521</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>258.621178561693</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>226.7688596193125</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,10 +9652,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>170.1140909277296</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>103.7862464855133</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>16.80057335908779</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,16 +10363,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>163.3991441460111</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,22 +10588,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P35" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>315.167921710932</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,19 +11065,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>297.8289162490797</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22606,16 +22606,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>303.7892728915808</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22770,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,16 +22837,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>177.3903731673862</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,13 +22986,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23026,22 +23026,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,16 +23077,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>128.2587004976293</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.4998189757899</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>86.5307534535802</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>13.18197579352594</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23469,7 +23469,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>150.2973423161892</v>
       </c>
       <c r="Y16" t="n">
-        <v>134.0724053833431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>151.9614569258702</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>107.1588378261881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>178.3446460444189</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>87.88357004526503</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>11.6882003921682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>194.7357120890319</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>53.94492190635015</v>
       </c>
       <c r="U28" t="n">
-        <v>16.14213605696636</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>48.94833549605298</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>12.31831100354754</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>59.06794202461218</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>35.67378197783299</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25362,10 +25362,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25599,25 +25599,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>157.8156224557567</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.62801511026709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>119.0629492855992</v>
       </c>
       <c r="X43" t="n">
-        <v>168.059208188242</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>179.5651321021749</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>31.80952548191036</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26073,10 +26073,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1038397.581048951</v>
+        <v>747113.721249629</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1038397.581048951</v>
+        <v>747113.721249629</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1038397.581048951</v>
+        <v>747113.7212496292</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961719</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961716</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961716</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961716</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
         <v>436789.9655756817</v>
       </c>
       <c r="F2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="G2" t="n">
         <v>436789.9655756816</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>436789.9655756815</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>436789.9655756816</v>
       </c>
-      <c r="I2" t="n">
-        <v>436789.9655756815</v>
-      </c>
       <c r="J2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="K2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756817</v>
       </c>
       <c r="L2" t="n">
         <v>436789.9655756816</v>
@@ -26349,13 +26349,13 @@
         <v>436789.9655756816</v>
       </c>
       <c r="N2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="O2" t="n">
         <v>436789.9655756815</v>
       </c>
       <c r="P2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756817</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.6079970919</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
@@ -26441,13 +26441,13 @@
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
         <v>21619.60799709187</v>
@@ -26459,7 +26459,7 @@
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26493,16 +26493,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413460.5802450277</v>
+        <v>-409026.4933460727</v>
       </c>
       <c r="C6" t="n">
-        <v>176507.2989695167</v>
+        <v>180941.3858684716</v>
       </c>
       <c r="D6" t="n">
-        <v>176507.2989695167</v>
+        <v>180941.3858684716</v>
       </c>
       <c r="E6" t="n">
-        <v>-409262.5295707884</v>
+        <v>-408657.7701587565</v>
       </c>
       <c r="F6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346504</v>
       </c>
       <c r="G6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="H6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="I6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="J6" t="n">
-        <v>141691.6652300251</v>
+        <v>142296.4246420573</v>
       </c>
       <c r="K6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="L6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346504</v>
       </c>
       <c r="M6" t="n">
-        <v>188472.5695836733</v>
+        <v>189077.3289957053</v>
       </c>
       <c r="N6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346501</v>
       </c>
       <c r="O6" t="n">
-        <v>318114.884422618</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="P6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346504</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.904366193233841</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>90.71426267030888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>226.9689958712386</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>14.59587156758277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858212</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.41969662100193</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>766.6741794499121</v>
+        <v>852.7555845359038</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>734.8218605075315</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36372,10 +36372,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>568.8760771471015</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>559.3763608778455</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36612,13 +36612,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>76.41377190131257</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282437</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>414.1934489497305</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P35" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37560,13 +37560,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>713.9299079303039</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37785,19 +37785,19 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>753.4190306414118</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
